--- a/Data/Habitat_Data/Confinement_Scores.xlsx
+++ b/Data/Habitat_Data/Confinement_Scores.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707521EB-9553-41C1-954A-FDAD37C92B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE7F08-8459-489C-B74F-A9FEDF4BDCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$733</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$738</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3064,14 +3064,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G419" workbookViewId="0">
-      <selection activeCell="K431" sqref="K431"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B741" sqref="B741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="8" width="17.33203125" customWidth="1"/>
@@ -17563,7 +17563,7 @@
         <v>509</v>
       </c>
       <c r="B500" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C500" t="s">
         <v>11</v>
@@ -17590,7 +17590,7 @@
         <v>510</v>
       </c>
       <c r="B501" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C501" t="s">
         <v>11</v>
@@ -17620,7 +17620,7 @@
         <v>511</v>
       </c>
       <c r="B502" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C502" t="s">
         <v>11</v>
@@ -24472,11 +24472,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I733" xr:uid="{1A8CE5C2-FF92-4238-8F97-29705F23172E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I738">
-      <sortCondition ref="A1:A733"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I738" xr:uid="{1A8CE5C2-FF92-4238-8F97-29705F23172E}"/>
   <conditionalFormatting sqref="I2:I737">
     <cfRule type="colorScale" priority="5">
       <colorScale>

--- a/Data/Habitat_Data/Confinement_Scores.xlsx
+++ b/Data/Habitat_Data/Confinement_Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE7F08-8459-489C-B74F-A9FEDF4BDCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83363D4-5696-4752-A6FD-496F475A64E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8412" yWindow="684" windowWidth="14064" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="876">
   <si>
     <t>ReachName</t>
   </si>
@@ -2652,6 +2652,18 @@
   </si>
   <si>
     <t>Wolf Creek</t>
+  </si>
+  <si>
+    <t>Salmon 16-10</t>
+  </si>
+  <si>
+    <t>Okanagan 16-48</t>
+  </si>
+  <si>
+    <t>Rainy Creek Methow 01</t>
+  </si>
+  <si>
+    <t>Chiliwist 16-1</t>
   </si>
 </sst>
 </file>
@@ -3064,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M738"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B741" sqref="B741"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="A561" sqref="A561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5976,7 +5988,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>875</v>
       </c>
       <c r="B100" t="s">
         <v>782</v>
@@ -17704,7 +17716,7 @@
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>745</v>
+        <v>873</v>
       </c>
       <c r="B505" t="s">
         <v>843</v>
@@ -19323,7 +19335,7 @@
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>568</v>
+        <v>874</v>
       </c>
       <c r="B561" t="s">
         <v>809</v>
@@ -19884,7 +19896,7 @@
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>746</v>
+        <v>872</v>
       </c>
       <c r="B581" t="s">
         <v>857</v>
@@ -27720,7 +27732,7 @@
       </c>
       <c r="J100" t="b">
         <f>A100=Sheet1!A100</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -40647,7 +40659,7 @@
       </c>
       <c r="J505" t="b">
         <f>A505=Sheet1!A505</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
@@ -42435,7 +42447,7 @@
       </c>
       <c r="J561" t="b">
         <f>A561=Sheet1!A561</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.3">
@@ -43059,7 +43071,7 @@
       </c>
       <c r="J581" t="b">
         <f>A581=Sheet1!A581</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.3">

--- a/Data/Habitat_Data/Confinement_Scores.xlsx
+++ b/Data/Habitat_Data/Confinement_Scores.xlsx
@@ -24166,7 +24166,9 @@
       <c r="B724" t="s">
         <v>857</v>
       </c>
-      <c r="C724"/>
+      <c r="C724" t="s">
+        <v>16</v>
+      </c>
       <c r="D724" t="n">
         <v>0.055781</v>
       </c>
@@ -24544,9 +24546,7 @@
       <c r="B737" t="s">
         <v>867</v>
       </c>
-      <c r="C737" t="s">
-        <v>20</v>
-      </c>
+      <c r="C737"/>
       <c r="D737" t="n">
         <v>0.054725</v>
       </c>

--- a/Data/Habitat_Data/Confinement_Scores.xlsx
+++ b/Data/Habitat_Data/Confinement_Scores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="877">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -1694,6 +1694,12 @@
     <t xml:space="preserve">North Shaser Creek 01</t>
   </si>
   <si>
+    <t xml:space="preserve">Okanagan 16-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Haynes Creek North</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-1</t>
   </si>
   <si>
@@ -1838,15 +1844,9 @@
     <t xml:space="preserve">Okanogan 16-46</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanogan-Haynes Creek North</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-47</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanagan 16-48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-5</t>
   </si>
   <si>
@@ -2153,15 +2153,15 @@
     <t xml:space="preserve">Scaffold Camp Creek 01</t>
   </si>
   <si>
+    <t xml:space="preserve">Scatter Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sears Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Lower White River</t>
   </si>
   <si>
-    <t xml:space="preserve">Scatter Creek 01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-1</t>
   </si>
   <si>
@@ -2391,6 +2391,9 @@
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual over-ride since unconfined</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 03</t>
@@ -13189,7 +13192,7 @@
         <v>100</v>
       </c>
       <c r="I348" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J348"/>
     </row>
@@ -15541,9 +15544,11 @@
       <c r="G428" t="n">
         <v>0</v>
       </c>
-      <c r="H428"/>
+      <c r="H428" t="n">
+        <v>100</v>
+      </c>
       <c r="I428" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J428"/>
     </row>
@@ -16585,21 +16590,21 @@
       <c r="C464" t="s">
         <v>12</v>
       </c>
-      <c r="D464" t="n">
-        <v>1.864156</v>
-      </c>
-      <c r="E464"/>
+      <c r="D464"/>
+      <c r="E464" t="n">
+        <v>1.959369</v>
+      </c>
       <c r="F464" t="n">
-        <v>1.864156</v>
+        <v>1.959369</v>
       </c>
       <c r="G464" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I464" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J464"/>
     </row>
@@ -16614,11 +16619,11 @@
         <v>12</v>
       </c>
       <c r="D465" t="n">
-        <v>0.889644</v>
+        <v>1.864156</v>
       </c>
       <c r="E465"/>
       <c r="F465" t="n">
-        <v>0.889644</v>
+        <v>1.864156</v>
       </c>
       <c r="G465" t="n">
         <v>100</v>
@@ -16636,17 +16641,17 @@
         <v>564</v>
       </c>
       <c r="B466" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C466" t="s">
         <v>12</v>
       </c>
       <c r="D466" t="n">
-        <v>2.651491</v>
+        <v>0.889644</v>
       </c>
       <c r="E466"/>
       <c r="F466" t="n">
-        <v>2.651491</v>
+        <v>0.889644</v>
       </c>
       <c r="G466" t="n">
         <v>100</v>
@@ -16661,20 +16666,20 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
+        <v>566</v>
+      </c>
+      <c r="B467" t="s">
         <v>565</v>
-      </c>
-      <c r="B467" t="s">
-        <v>563</v>
       </c>
       <c r="C467" t="s">
         <v>12</v>
       </c>
       <c r="D467" t="n">
-        <v>2.672354</v>
+        <v>2.651491</v>
       </c>
       <c r="E467"/>
       <c r="F467" t="n">
-        <v>2.672354</v>
+        <v>2.651491</v>
       </c>
       <c r="G467" t="n">
         <v>100</v>
@@ -16689,20 +16694,20 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B468" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C468" t="s">
         <v>12</v>
       </c>
       <c r="D468" t="n">
-        <v>1.342294</v>
+        <v>2.672354</v>
       </c>
       <c r="E468"/>
       <c r="F468" t="n">
-        <v>1.342294</v>
+        <v>2.672354</v>
       </c>
       <c r="G468" t="n">
         <v>100</v>
@@ -16717,20 +16722,20 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B469" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C469" t="s">
         <v>12</v>
       </c>
       <c r="D469" t="n">
-        <v>1.330285</v>
+        <v>1.342294</v>
       </c>
       <c r="E469"/>
       <c r="F469" t="n">
-        <v>1.330285</v>
+        <v>1.342294</v>
       </c>
       <c r="G469" t="n">
         <v>100</v>
@@ -16745,28 +16750,26 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B470" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C470" t="s">
         <v>12</v>
       </c>
       <c r="D470" t="n">
-        <v>0.844617</v>
-      </c>
-      <c r="E470" t="n">
-        <v>0.015201</v>
-      </c>
+        <v>1.330285</v>
+      </c>
+      <c r="E470"/>
       <c r="F470" t="n">
-        <v>0.859817</v>
+        <v>1.330285</v>
       </c>
       <c r="G470" t="n">
-        <v>98.2321819643017</v>
+        <v>100</v>
       </c>
       <c r="H470" t="n">
-        <v>1.76793433951643</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>5</v>
@@ -16775,26 +16778,28 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B471" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C471" t="s">
         <v>12</v>
       </c>
       <c r="D471" t="n">
-        <v>2.847954</v>
-      </c>
-      <c r="E471"/>
+        <v>0.844617</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.015201</v>
+      </c>
       <c r="F471" t="n">
-        <v>2.847954</v>
+        <v>0.859817</v>
       </c>
       <c r="G471" t="n">
-        <v>100</v>
+        <v>98.2321819643017</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>1.76793433951643</v>
       </c>
       <c r="I471" t="n">
         <v>5</v>
@@ -16806,25 +16811,23 @@
         <v>571</v>
       </c>
       <c r="B472" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C472" t="s">
         <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>2.118328</v>
-      </c>
-      <c r="E472" t="n">
-        <v>0.018934</v>
-      </c>
+        <v>2.847954</v>
+      </c>
+      <c r="E472"/>
       <c r="F472" t="n">
-        <v>2.137262</v>
+        <v>2.847954</v>
       </c>
       <c r="G472" t="n">
-        <v>99.1141001898691</v>
+        <v>100</v>
       </c>
       <c r="H472" t="n">
-        <v>0.885899810130906</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>5</v>
@@ -16833,26 +16836,28 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
+        <v>573</v>
+      </c>
+      <c r="B473" t="s">
         <v>572</v>
-      </c>
-      <c r="B473" t="s">
-        <v>570</v>
       </c>
       <c r="C473" t="s">
         <v>12</v>
       </c>
       <c r="D473" t="n">
-        <v>1.389322</v>
-      </c>
-      <c r="E473"/>
+        <v>2.118328</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.018934</v>
+      </c>
       <c r="F473" t="n">
-        <v>1.389322</v>
+        <v>2.137262</v>
       </c>
       <c r="G473" t="n">
-        <v>100</v>
+        <v>99.1141001898691</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>0.885899810130906</v>
       </c>
       <c r="I473" t="n">
         <v>5</v>
@@ -16861,20 +16866,20 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B474" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C474" t="s">
         <v>12</v>
       </c>
       <c r="D474" t="n">
-        <v>2.722166</v>
+        <v>1.389322</v>
       </c>
       <c r="E474"/>
       <c r="F474" t="n">
-        <v>2.722166</v>
+        <v>1.389322</v>
       </c>
       <c r="G474" t="n">
         <v>100</v>
@@ -16889,20 +16894,20 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B475" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C475" t="s">
         <v>12</v>
       </c>
       <c r="D475" t="n">
-        <v>1.877473</v>
+        <v>2.722166</v>
       </c>
       <c r="E475"/>
       <c r="F475" t="n">
-        <v>1.877473</v>
+        <v>2.722166</v>
       </c>
       <c r="G475" t="n">
         <v>100</v>
@@ -16917,20 +16922,20 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B476" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C476" t="s">
         <v>12</v>
       </c>
       <c r="D476" t="n">
-        <v>1.285683</v>
+        <v>1.877473</v>
       </c>
       <c r="E476"/>
       <c r="F476" t="n">
-        <v>1.285683</v>
+        <v>1.877473</v>
       </c>
       <c r="G476" t="n">
         <v>100</v>
@@ -16945,20 +16950,20 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B477" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C477" t="s">
         <v>12</v>
       </c>
       <c r="D477" t="n">
-        <v>1.624341</v>
+        <v>1.285683</v>
       </c>
       <c r="E477"/>
       <c r="F477" t="n">
-        <v>1.624341</v>
+        <v>1.285683</v>
       </c>
       <c r="G477" t="n">
         <v>100</v>
@@ -16973,20 +16978,20 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B478" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C478" t="s">
         <v>12</v>
       </c>
       <c r="D478" t="n">
-        <v>1.616128</v>
+        <v>1.624341</v>
       </c>
       <c r="E478"/>
       <c r="F478" t="n">
-        <v>1.616128</v>
+        <v>1.624341</v>
       </c>
       <c r="G478" t="n">
         <v>100</v>
@@ -17001,20 +17006,20 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B479" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C479" t="s">
         <v>12</v>
       </c>
       <c r="D479" t="n">
-        <v>1.351531</v>
+        <v>1.616128</v>
       </c>
       <c r="E479"/>
       <c r="F479" t="n">
-        <v>1.351531</v>
+        <v>1.616128</v>
       </c>
       <c r="G479" t="n">
         <v>100</v>
@@ -17029,20 +17034,20 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B480" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C480" t="s">
         <v>12</v>
       </c>
       <c r="D480" t="n">
-        <v>2.258904</v>
+        <v>1.351531</v>
       </c>
       <c r="E480"/>
       <c r="F480" t="n">
-        <v>2.258904</v>
+        <v>1.351531</v>
       </c>
       <c r="G480" t="n">
         <v>100</v>
@@ -17060,17 +17065,17 @@
         <v>581</v>
       </c>
       <c r="B481" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C481" t="s">
         <v>12</v>
       </c>
       <c r="D481" t="n">
-        <v>2.229406</v>
+        <v>2.258904</v>
       </c>
       <c r="E481"/>
       <c r="F481" t="n">
-        <v>2.229406</v>
+        <v>2.258904</v>
       </c>
       <c r="G481" t="n">
         <v>100</v>
@@ -17085,20 +17090,20 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
+        <v>583</v>
+      </c>
+      <c r="B482" t="s">
         <v>582</v>
-      </c>
-      <c r="B482" t="s">
-        <v>583</v>
       </c>
       <c r="C482" t="s">
         <v>12</v>
       </c>
       <c r="D482" t="n">
-        <v>2.622489</v>
+        <v>2.229406</v>
       </c>
       <c r="E482"/>
       <c r="F482" t="n">
-        <v>2.622489</v>
+        <v>2.229406</v>
       </c>
       <c r="G482" t="n">
         <v>100</v>
@@ -17116,25 +17121,23 @@
         <v>584</v>
       </c>
       <c r="B483" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C483" t="s">
         <v>12</v>
       </c>
       <c r="D483" t="n">
-        <v>1.236063</v>
-      </c>
-      <c r="E483" t="n">
-        <v>0.182132</v>
-      </c>
+        <v>2.622489</v>
+      </c>
+      <c r="E483"/>
       <c r="F483" t="n">
-        <v>1.418195</v>
+        <v>2.622489</v>
       </c>
       <c r="G483" t="n">
-        <v>87.1574783439513</v>
+        <v>100</v>
       </c>
       <c r="H483" t="n">
-        <v>12.8425216560487</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>5</v>
@@ -17143,28 +17146,28 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
+        <v>586</v>
+      </c>
+      <c r="B484" t="s">
         <v>585</v>
-      </c>
-      <c r="B484" t="s">
-        <v>583</v>
       </c>
       <c r="C484" t="s">
         <v>12</v>
       </c>
       <c r="D484" t="n">
-        <v>1.341366</v>
+        <v>1.236063</v>
       </c>
       <c r="E484" t="n">
-        <v>0.229297</v>
+        <v>0.182132</v>
       </c>
       <c r="F484" t="n">
-        <v>1.570664</v>
+        <v>1.418195</v>
       </c>
       <c r="G484" t="n">
-        <v>85.4012061141021</v>
+        <v>87.1574783439513</v>
       </c>
       <c r="H484" t="n">
-        <v>14.5987302185572</v>
+        <v>12.8425216560487</v>
       </c>
       <c r="I484" t="n">
         <v>5</v>
@@ -17173,28 +17176,28 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B485" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C485" t="s">
         <v>12</v>
       </c>
       <c r="D485" t="n">
-        <v>0.194395</v>
+        <v>1.341366</v>
       </c>
       <c r="E485" t="n">
-        <v>0.429435</v>
+        <v>0.229297</v>
       </c>
       <c r="F485" t="n">
-        <v>0.62383</v>
+        <v>1.570664</v>
       </c>
       <c r="G485" t="n">
-        <v>31.1615343923825</v>
+        <v>85.4012061141021</v>
       </c>
       <c r="H485" t="n">
-        <v>68.8384656076175</v>
+        <v>14.5987302185572</v>
       </c>
       <c r="I485" t="n">
         <v>5</v>
@@ -17203,26 +17206,28 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B486" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="C486" t="s">
         <v>12</v>
       </c>
       <c r="D486" t="n">
-        <v>1.804594</v>
-      </c>
-      <c r="E486"/>
+        <v>0.194395</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.429435</v>
+      </c>
       <c r="F486" t="n">
-        <v>1.804594</v>
+        <v>0.62383</v>
       </c>
       <c r="G486" t="n">
-        <v>100</v>
+        <v>31.1615343923825</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>68.8384656076175</v>
       </c>
       <c r="I486" t="n">
         <v>5</v>
@@ -17231,28 +17236,26 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B487" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="C487" t="s">
         <v>12</v>
       </c>
       <c r="D487" t="n">
-        <v>2.14731</v>
-      </c>
-      <c r="E487" t="n">
-        <v>0.147028</v>
-      </c>
+        <v>1.804594</v>
+      </c>
+      <c r="E487"/>
       <c r="F487" t="n">
-        <v>2.294337</v>
+        <v>1.804594</v>
       </c>
       <c r="G487" t="n">
-        <v>93.591743497141</v>
+        <v>100</v>
       </c>
       <c r="H487" t="n">
-        <v>6.40830008843513</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>5</v>
@@ -17261,26 +17264,28 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B488" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C488" t="s">
         <v>12</v>
       </c>
       <c r="D488" t="n">
-        <v>1.63121</v>
-      </c>
-      <c r="E488"/>
+        <v>2.14731</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.147028</v>
+      </c>
       <c r="F488" t="n">
-        <v>1.63121</v>
+        <v>2.294337</v>
       </c>
       <c r="G488" t="n">
-        <v>100</v>
+        <v>93.591743497141</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>6.40830008843513</v>
       </c>
       <c r="I488" t="n">
         <v>5</v>
@@ -17289,20 +17294,20 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B489" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C489" t="s">
         <v>12</v>
       </c>
       <c r="D489" t="n">
-        <v>2.099143</v>
+        <v>1.63121</v>
       </c>
       <c r="E489"/>
       <c r="F489" t="n">
-        <v>2.099143</v>
+        <v>1.63121</v>
       </c>
       <c r="G489" t="n">
         <v>100</v>
@@ -17317,28 +17322,26 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B490" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C490" t="s">
         <v>12</v>
       </c>
       <c r="D490" t="n">
-        <v>0.553743</v>
-      </c>
-      <c r="E490" t="n">
-        <v>0.059992</v>
-      </c>
+        <v>2.099143</v>
+      </c>
+      <c r="E490"/>
       <c r="F490" t="n">
-        <v>0.613734</v>
+        <v>2.099143</v>
       </c>
       <c r="G490" t="n">
-        <v>90.2252441611512</v>
+        <v>100</v>
       </c>
       <c r="H490" t="n">
-        <v>9.77491877588662</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>5</v>
@@ -17347,28 +17350,28 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B491" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C491" t="s">
         <v>12</v>
       </c>
       <c r="D491" t="n">
-        <v>1.407816</v>
+        <v>0.553743</v>
       </c>
       <c r="E491" t="n">
-        <v>0.223234</v>
+        <v>0.059992</v>
       </c>
       <c r="F491" t="n">
-        <v>1.63105</v>
+        <v>0.613734</v>
       </c>
       <c r="G491" t="n">
-        <v>86.3134790472395</v>
+        <v>90.2252441611512</v>
       </c>
       <c r="H491" t="n">
-        <v>13.6865209527605</v>
+        <v>9.77491877588662</v>
       </c>
       <c r="I491" t="n">
         <v>5</v>
@@ -17380,23 +17383,25 @@
         <v>594</v>
       </c>
       <c r="B492" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C492" t="s">
         <v>12</v>
       </c>
       <c r="D492" t="n">
-        <v>2.234095</v>
-      </c>
-      <c r="E492"/>
+        <v>1.407816</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.223234</v>
+      </c>
       <c r="F492" t="n">
-        <v>2.234095</v>
+        <v>1.63105</v>
       </c>
       <c r="G492" t="n">
-        <v>100</v>
+        <v>86.3134790472395</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>13.6865209527605</v>
       </c>
       <c r="I492" t="n">
         <v>5</v>
@@ -17405,20 +17410,20 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
+        <v>596</v>
+      </c>
+      <c r="B493" t="s">
         <v>595</v>
-      </c>
-      <c r="B493" t="s">
-        <v>593</v>
       </c>
       <c r="C493" t="s">
         <v>12</v>
       </c>
       <c r="D493" t="n">
-        <v>1.026418</v>
+        <v>2.234095</v>
       </c>
       <c r="E493"/>
       <c r="F493" t="n">
-        <v>1.026418</v>
+        <v>2.234095</v>
       </c>
       <c r="G493" t="n">
         <v>100</v>
@@ -17433,20 +17438,20 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B494" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C494" t="s">
         <v>12</v>
       </c>
       <c r="D494" t="n">
-        <v>2.618868</v>
+        <v>1.026418</v>
       </c>
       <c r="E494"/>
       <c r="F494" t="n">
-        <v>2.618868</v>
+        <v>1.026418</v>
       </c>
       <c r="G494" t="n">
         <v>100</v>
@@ -17461,20 +17466,20 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B495" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C495" t="s">
         <v>12</v>
       </c>
       <c r="D495" t="n">
-        <v>2.63159</v>
+        <v>2.618868</v>
       </c>
       <c r="E495"/>
       <c r="F495" t="n">
-        <v>2.63159</v>
+        <v>2.618868</v>
       </c>
       <c r="G495" t="n">
         <v>100</v>
@@ -17489,20 +17494,20 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B496" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C496" t="s">
         <v>12</v>
       </c>
       <c r="D496" t="n">
-        <v>2.515758</v>
+        <v>2.63159</v>
       </c>
       <c r="E496"/>
       <c r="F496" t="n">
-        <v>2.515758</v>
+        <v>2.63159</v>
       </c>
       <c r="G496" t="n">
         <v>100</v>
@@ -17517,20 +17522,20 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B497" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="C497" t="s">
         <v>12</v>
       </c>
       <c r="D497" t="n">
-        <v>1.853424</v>
+        <v>2.515758</v>
       </c>
       <c r="E497"/>
       <c r="F497" t="n">
-        <v>1.853424</v>
+        <v>2.515758</v>
       </c>
       <c r="G497" t="n">
         <v>100</v>
@@ -17545,20 +17550,20 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B498" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="C498" t="s">
         <v>12</v>
       </c>
       <c r="D498" t="n">
-        <v>1.289165</v>
+        <v>1.853424</v>
       </c>
       <c r="E498"/>
       <c r="F498" t="n">
-        <v>1.289165</v>
+        <v>1.853424</v>
       </c>
       <c r="G498" t="n">
         <v>100</v>
@@ -17573,20 +17578,20 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B499" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C499" t="s">
         <v>12</v>
       </c>
       <c r="D499" t="n">
-        <v>0.909789</v>
+        <v>1.289165</v>
       </c>
       <c r="E499"/>
       <c r="F499" t="n">
-        <v>0.909789</v>
+        <v>1.289165</v>
       </c>
       <c r="G499" t="n">
         <v>100</v>
@@ -17601,20 +17606,20 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B500" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C500" t="s">
         <v>12</v>
       </c>
       <c r="D500" t="n">
-        <v>1.580537</v>
+        <v>0.909789</v>
       </c>
       <c r="E500"/>
       <c r="F500" t="n">
-        <v>1.580537</v>
+        <v>0.909789</v>
       </c>
       <c r="G500" t="n">
         <v>100</v>
@@ -17629,20 +17634,20 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B501" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C501" t="s">
         <v>12</v>
       </c>
       <c r="D501" t="n">
-        <v>0.883712</v>
+        <v>1.580537</v>
       </c>
       <c r="E501"/>
       <c r="F501" t="n">
-        <v>0.883712</v>
+        <v>1.580537</v>
       </c>
       <c r="G501" t="n">
         <v>100</v>
@@ -17660,25 +17665,23 @@
         <v>605</v>
       </c>
       <c r="B502" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C502" t="s">
         <v>12</v>
       </c>
       <c r="D502" t="n">
-        <v>1.123941</v>
-      </c>
-      <c r="E502" t="n">
-        <v>0.009041</v>
-      </c>
+        <v>0.883712</v>
+      </c>
+      <c r="E502"/>
       <c r="F502" t="n">
-        <v>1.132982</v>
+        <v>0.883712</v>
       </c>
       <c r="G502" t="n">
-        <v>99.202017331255</v>
+        <v>100</v>
       </c>
       <c r="H502" t="n">
-        <v>0.797982668744958</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>5</v>
@@ -17687,28 +17690,28 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
+        <v>607</v>
+      </c>
+      <c r="B503" t="s">
         <v>606</v>
-      </c>
-      <c r="B503" t="s">
-        <v>604</v>
       </c>
       <c r="C503" t="s">
         <v>12</v>
       </c>
       <c r="D503" t="n">
-        <v>1.208783</v>
+        <v>1.123941</v>
       </c>
       <c r="E503" t="n">
-        <v>0.024787</v>
+        <v>0.009041</v>
       </c>
       <c r="F503" t="n">
-        <v>1.23357</v>
+        <v>1.132982</v>
       </c>
       <c r="G503" t="n">
-        <v>97.9906288252795</v>
+        <v>99.202017331255</v>
       </c>
       <c r="H503" t="n">
-        <v>2.00937117472053</v>
+        <v>0.797982668744958</v>
       </c>
       <c r="I503" t="n">
         <v>5</v>
@@ -17717,28 +17720,28 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B504" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C504" t="s">
         <v>12</v>
       </c>
       <c r="D504" t="n">
-        <v>1.843153</v>
+        <v>1.208783</v>
       </c>
       <c r="E504" t="n">
-        <v>0.262474</v>
+        <v>0.024787</v>
       </c>
       <c r="F504" t="n">
-        <v>2.105627</v>
+        <v>1.23357</v>
       </c>
       <c r="G504" t="n">
-        <v>87.5346393259585</v>
+        <v>97.9906288252795</v>
       </c>
       <c r="H504" t="n">
-        <v>12.4653606740415</v>
+        <v>2.00937117472053</v>
       </c>
       <c r="I504" t="n">
         <v>5</v>
@@ -17750,26 +17753,28 @@
         <v>609</v>
       </c>
       <c r="B505" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="C505" t="s">
         <v>12</v>
       </c>
-      <c r="D505"/>
+      <c r="D505" t="n">
+        <v>1.843153</v>
+      </c>
       <c r="E505" t="n">
-        <v>1.616628</v>
+        <v>0.262474</v>
       </c>
       <c r="F505" t="n">
-        <v>1.616628</v>
+        <v>2.105627</v>
       </c>
       <c r="G505" t="n">
-        <v>0</v>
+        <v>87.5346393259585</v>
       </c>
       <c r="H505" t="n">
-        <v>100</v>
+        <v>12.4653606740415</v>
       </c>
       <c r="I505" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J505"/>
     </row>
@@ -17778,17 +17783,17 @@
         <v>610</v>
       </c>
       <c r="B506" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="C506" t="s">
         <v>12</v>
       </c>
       <c r="D506"/>
       <c r="E506" t="n">
-        <v>1.959369</v>
+        <v>1.616628</v>
       </c>
       <c r="F506" t="n">
-        <v>1.959369</v>
+        <v>1.616628</v>
       </c>
       <c r="G506" t="n">
         <v>0</v>
@@ -17806,7 +17811,7 @@
         <v>611</v>
       </c>
       <c r="B507" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C507" t="s">
         <v>12</v>
@@ -17834,7 +17839,7 @@
         <v>612</v>
       </c>
       <c r="B508" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C508" t="s">
         <v>12</v>
@@ -17862,7 +17867,7 @@
         <v>613</v>
       </c>
       <c r="B509" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C509" t="s">
         <v>12</v>
@@ -17890,7 +17895,7 @@
         <v>614</v>
       </c>
       <c r="B510" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C510" t="s">
         <v>12</v>
@@ -17918,7 +17923,7 @@
         <v>615</v>
       </c>
       <c r="B511" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C511" t="s">
         <v>12</v>
@@ -17946,7 +17951,7 @@
         <v>616</v>
       </c>
       <c r="B512" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C512" t="s">
         <v>12</v>
@@ -20432,25 +20437,25 @@
         <v>713</v>
       </c>
       <c r="B597" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="C597" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D597" t="n">
-        <v>0.242262</v>
+        <v>0.016533</v>
       </c>
       <c r="E597" t="n">
-        <v>0.119696</v>
+        <v>0.040725</v>
       </c>
       <c r="F597" t="n">
-        <v>0.361958</v>
+        <v>0.057258</v>
       </c>
       <c r="G597" t="n">
-        <v>66.9309698915344</v>
+        <v>28.8745677459918</v>
       </c>
       <c r="H597" t="n">
-        <v>33.0690301084656</v>
+        <v>71.1254322540082</v>
       </c>
       <c r="I597" t="n">
         <v>5</v>
@@ -20459,28 +20464,28 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
+        <v>714</v>
+      </c>
+      <c r="B598" t="s">
         <v>715</v>
       </c>
-      <c r="B598" t="s">
-        <v>677</v>
-      </c>
       <c r="C598" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D598" t="n">
-        <v>0.016533</v>
+        <v>0.242262</v>
       </c>
       <c r="E598" t="n">
-        <v>0.040725</v>
+        <v>0.119696</v>
       </c>
       <c r="F598" t="n">
-        <v>0.057258</v>
+        <v>0.361958</v>
       </c>
       <c r="G598" t="n">
-        <v>28.8745677459918</v>
+        <v>66.9309698915344</v>
       </c>
       <c r="H598" t="n">
-        <v>71.1254322540082</v>
+        <v>33.0690301084656</v>
       </c>
       <c r="I598" t="n">
         <v>5</v>
@@ -22503,11 +22508,13 @@
       <c r="I667" t="n">
         <v>5</v>
       </c>
-      <c r="J667"/>
+      <c r="J667" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B668" t="s">
         <v>677</v>
@@ -22537,7 +22544,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B669" t="s">
         <v>558</v>
@@ -22567,7 +22574,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B670" t="s">
         <v>241</v>
@@ -22595,10 +22602,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B671" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C671" t="s">
         <v>12</v>
@@ -22623,10 +22630,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
+        <v>799</v>
+      </c>
+      <c r="B672" t="s">
         <v>798</v>
-      </c>
-      <c r="B672" t="s">
-        <v>797</v>
       </c>
       <c r="C672" t="s">
         <v>12</v>
@@ -22651,10 +22658,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B673" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C673" t="s">
         <v>12</v>
@@ -22681,10 +22688,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B674" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C674" t="s">
         <v>20</v>
@@ -22711,10 +22718,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
+        <v>803</v>
+      </c>
+      <c r="B675" t="s">
         <v>802</v>
-      </c>
-      <c r="B675" t="s">
-        <v>801</v>
       </c>
       <c r="C675" t="s">
         <v>20</v>
@@ -22739,7 +22746,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B676" t="s">
         <v>36</v>
@@ -22769,7 +22776,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B677" t="s">
         <v>36</v>
@@ -22799,7 +22806,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B678" t="s">
         <v>36</v>
@@ -22829,7 +22836,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B679" t="s">
         <v>36</v>
@@ -22859,7 +22866,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B680" t="s">
         <v>36</v>
@@ -22887,7 +22894,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B681" t="s">
         <v>36</v>
@@ -22917,7 +22924,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B682" t="s">
         <v>36</v>
@@ -22947,7 +22954,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B683" t="s">
         <v>36</v>
@@ -22977,7 +22984,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B684" t="s">
         <v>36</v>
@@ -23007,7 +23014,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B685" t="s">
         <v>36</v>
@@ -23037,7 +23044,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B686" t="s">
         <v>36</v>
@@ -23067,7 +23074,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B687" t="s">
         <v>36</v>
@@ -23097,7 +23104,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B688" t="s">
         <v>36</v>
@@ -23125,7 +23132,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B689" t="s">
         <v>190</v>
@@ -23155,7 +23162,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B690" t="s">
         <v>190</v>
@@ -23183,7 +23190,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B691" t="s">
         <v>190</v>
@@ -23213,7 +23220,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B692" t="s">
         <v>190</v>
@@ -23243,7 +23250,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B693" t="s">
         <v>190</v>
@@ -23273,10 +23280,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B694" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C694" t="s">
         <v>16</v>
@@ -23301,10 +23308,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B695" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C695" t="s">
         <v>16</v>
@@ -23331,10 +23338,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
+        <v>826</v>
+      </c>
+      <c r="B696" t="s">
         <v>825</v>
-      </c>
-      <c r="B696" t="s">
-        <v>824</v>
       </c>
       <c r="C696" t="s">
         <v>16</v>
@@ -23361,10 +23368,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B697" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C697" t="s">
         <v>16</v>
@@ -23389,10 +23396,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B698" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C698" t="s">
         <v>16</v>
@@ -23417,10 +23424,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B699" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C699" t="s">
         <v>16</v>
@@ -23447,10 +23454,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B700" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C700" t="s">
         <v>16</v>
@@ -23477,10 +23484,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B701" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C701" t="s">
         <v>16</v>
@@ -23507,10 +23514,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
+        <v>833</v>
+      </c>
+      <c r="B702" t="s">
         <v>832</v>
-      </c>
-      <c r="B702" t="s">
-        <v>831</v>
       </c>
       <c r="C702" t="s">
         <v>16</v>
@@ -23537,10 +23544,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B703" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C703" t="s">
         <v>16</v>
@@ -23565,10 +23572,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B704" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C704" t="s">
         <v>16</v>
@@ -23595,10 +23602,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B705" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C705" t="s">
         <v>16</v>
@@ -23625,10 +23632,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B706" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C706" t="s">
         <v>16</v>
@@ -23655,10 +23662,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B707" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C707" t="s">
         <v>16</v>
@@ -23685,10 +23692,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B708" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C708" t="s">
         <v>16</v>
@@ -23712,15 +23719,15 @@
         <v>5</v>
       </c>
       <c r="J708" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B709" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C709" t="s">
         <v>16</v>
@@ -23747,10 +23754,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B710" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C710" t="s">
         <v>16</v>
@@ -23777,10 +23784,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B711" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C711" t="s">
         <v>16</v>
@@ -23807,10 +23814,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B712" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C712" t="s">
         <v>16</v>
@@ -23837,7 +23844,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B713" t="s">
         <v>677</v>
@@ -23867,10 +23874,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B714" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C714" t="s">
         <v>16</v>
@@ -23897,10 +23904,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B715" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C715" t="s">
         <v>16</v>
@@ -23927,10 +23934,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B716" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C716" t="s">
         <v>16</v>
@@ -23957,10 +23964,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B717" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C717" t="s">
         <v>16</v>
@@ -23987,10 +23994,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B718" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C718" t="s">
         <v>16</v>
@@ -24017,10 +24024,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B719" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C719" t="s">
         <v>16</v>
@@ -24047,10 +24054,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B720" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C720" t="s">
         <v>16</v>
@@ -24075,10 +24082,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B721" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C721" t="s">
         <v>16</v>
@@ -24103,10 +24110,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B722" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C722" t="s">
         <v>16</v>
@@ -24131,10 +24138,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B723" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C723" t="s">
         <v>16</v>
@@ -24161,10 +24168,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B724" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C724" t="s">
         <v>16</v>
@@ -24191,10 +24198,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B725" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C725" t="s">
         <v>12</v>
@@ -24221,10 +24228,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
+        <v>861</v>
+      </c>
+      <c r="B726" t="s">
         <v>860</v>
-      </c>
-      <c r="B726" t="s">
-        <v>859</v>
       </c>
       <c r="C726" t="s">
         <v>12</v>
@@ -24249,10 +24256,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B727" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C727" t="s">
         <v>12</v>
@@ -24279,10 +24286,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B728" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C728" t="s">
         <v>12</v>
@@ -24309,10 +24316,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
+        <v>865</v>
+      </c>
+      <c r="B729" t="s">
         <v>864</v>
-      </c>
-      <c r="B729" t="s">
-        <v>863</v>
       </c>
       <c r="C729" t="s">
         <v>12</v>
@@ -24337,7 +24344,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B730" t="s">
         <v>677</v>
@@ -24367,10 +24374,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B731" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C731" t="s">
         <v>20</v>
@@ -24397,10 +24404,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
+        <v>869</v>
+      </c>
+      <c r="B732" t="s">
         <v>868</v>
-      </c>
-      <c r="B732" t="s">
-        <v>867</v>
       </c>
       <c r="C732" t="s">
         <v>20</v>
@@ -24427,10 +24434,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B733" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C733" t="s">
         <v>20</v>
@@ -24455,10 +24462,10 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B734" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C734" t="s">
         <v>20</v>
@@ -24485,10 +24492,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B735" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C735" t="s">
         <v>20</v>
@@ -24513,10 +24520,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B736" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C736" t="s">
         <v>20</v>
@@ -24541,10 +24548,10 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B737" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C737"/>
       <c r="D737" t="n">
@@ -24569,7 +24576,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B738" t="s">
         <v>161</v>
@@ -24595,7 +24602,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B739" t="s">
         <v>161</v>
